--- a/Domains/SITE_FEATURE_CLASS_subtypes.xlsx
+++ b/Domains/SITE_FEATURE_CLASS_subtypes.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26626"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27231"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://skeo.sharepoint.com/sites/SRPGIS/Shared Documents/General/Information Management Branch Support/FY 2023/Schema_starter_kit/DRAFT_SuperfundGIS_StarterKit_v5.2/Domains/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://skeo.sharepoint.com/sites/SRPGIS/Shared Documents/General/Information Management Branch Support/FY 2024/Training/2024 DRAFT_SuperfundGIS_StarterKit_v5.3/Domains/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="170" documentId="8_{A322E161-5E4E-468C-8B3B-BB45CF9BB013}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{5AC033CD-C00B-4E0C-8059-80EF785914CF}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{44C0781B-2ED4-4ED4-AF22-B1AF36A183D2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Subtypes" sheetId="14" r:id="rId1"/>
@@ -46,7 +46,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="294" uniqueCount="135">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="304" uniqueCount="135">
   <si>
     <t>Code</t>
   </si>
@@ -786,9 +786,9 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -796,7 +796,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>0</v>
       </c>
@@ -804,7 +804,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>1</v>
       </c>
@@ -812,7 +812,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>2</v>
       </c>
@@ -820,7 +820,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>3</v>
       </c>
@@ -828,7 +828,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>4</v>
       </c>
@@ -836,7 +836,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>5</v>
       </c>
@@ -844,7 +844,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A8">
         <v>6</v>
       </c>
@@ -852,7 +852,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A9">
         <v>7</v>
       </c>
@@ -860,7 +860,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A10">
         <v>8</v>
       </c>
@@ -868,7 +868,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A11">
         <v>9</v>
       </c>
@@ -887,9 +887,9 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -897,7 +897,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>52</v>
       </c>
@@ -905,7 +905,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>108</v>
       </c>
@@ -913,7 +913,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>109</v>
       </c>
@@ -921,7 +921,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>110</v>
       </c>
@@ -929,7 +929,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>111</v>
       </c>
@@ -948,13 +948,13 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="18.42578125" customWidth="1"/>
+    <col min="1" max="1" width="18.44140625" customWidth="1"/>
     <col min="2" max="2" width="14" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -962,7 +962,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>112</v>
       </c>
@@ -970,7 +970,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>113</v>
       </c>
@@ -978,7 +978,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>114</v>
       </c>
@@ -986,7 +986,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>115</v>
       </c>
@@ -994,7 +994,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>116</v>
       </c>
@@ -1002,7 +1002,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>117</v>
       </c>
@@ -1010,7 +1010,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>118</v>
       </c>
@@ -1018,7 +1018,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>119</v>
       </c>
@@ -1026,7 +1026,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>52</v>
       </c>
@@ -1034,7 +1034,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>120</v>
       </c>
@@ -1042,7 +1042,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>121</v>
       </c>
@@ -1050,7 +1050,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>122</v>
       </c>
@@ -1058,7 +1058,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>123</v>
       </c>
@@ -1066,7 +1066,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>124</v>
       </c>
@@ -1074,7 +1074,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>125</v>
       </c>
@@ -1082,7 +1082,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>126</v>
       </c>
@@ -1090,7 +1090,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>127</v>
       </c>
@@ -1098,7 +1098,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>128</v>
       </c>
@@ -1106,7 +1106,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>129</v>
       </c>
@@ -1114,7 +1114,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
         <v>130</v>
       </c>
@@ -1122,7 +1122,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
         <v>131</v>
       </c>
@@ -1140,15 +1140,15 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5B89563E-006E-41C9-BA10-58AB1D3272FC}">
-  <dimension ref="A1:B15"/>
+  <dimension ref="A1:B16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="J17" sqref="J17"/>
+      <selection activeCell="G28" sqref="G28"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1156,7 +1156,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>12</v>
       </c>
@@ -1164,7 +1164,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>13</v>
       </c>
@@ -1172,7 +1172,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>14</v>
       </c>
@@ -1180,7 +1180,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>15</v>
       </c>
@@ -1188,7 +1188,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>16</v>
       </c>
@@ -1196,7 +1196,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>17</v>
       </c>
@@ -1204,7 +1204,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>18</v>
       </c>
@@ -1212,7 +1212,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>19</v>
       </c>
@@ -1220,7 +1220,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>20</v>
       </c>
@@ -1228,7 +1228,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>21</v>
       </c>
@@ -1236,7 +1236,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>22</v>
       </c>
@@ -1244,7 +1244,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>23</v>
       </c>
@@ -1252,7 +1252,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>24</v>
       </c>
@@ -1260,12 +1260,20 @@
         <v>24</v>
       </c>
     </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>25</v>
       </c>
       <c r="B15" t="s">
         <v>25</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A16" t="s">
+        <v>52</v>
+      </c>
+      <c r="B16" t="s">
+        <v>52</v>
       </c>
     </row>
   </sheetData>
@@ -1279,9 +1287,9 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1289,7 +1297,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>26</v>
       </c>
@@ -1297,7 +1305,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>27</v>
       </c>
@@ -1305,7 +1313,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>28</v>
       </c>
@@ -1313,7 +1321,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>29</v>
       </c>
@@ -1321,7 +1329,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>30</v>
       </c>
@@ -1329,7 +1337,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>31</v>
       </c>
@@ -1337,7 +1345,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>32</v>
       </c>
@@ -1345,7 +1353,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>33</v>
       </c>
@@ -1353,7 +1361,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>34</v>
       </c>
@@ -1361,7 +1369,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>35</v>
       </c>
@@ -1369,7 +1377,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>36</v>
       </c>
@@ -1377,7 +1385,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>37</v>
       </c>
@@ -1385,7 +1393,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>38</v>
       </c>
@@ -1393,7 +1401,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>39</v>
       </c>
@@ -1401,7 +1409,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>40</v>
       </c>
@@ -1409,7 +1417,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>41</v>
       </c>
@@ -1417,7 +1425,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>42</v>
       </c>
@@ -1425,7 +1433,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>43</v>
       </c>
@@ -1433,7 +1441,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>44</v>
       </c>
@@ -1441,7 +1449,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
         <v>45</v>
       </c>
@@ -1449,7 +1457,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
         <v>46</v>
       </c>
@@ -1457,7 +1465,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
         <v>47</v>
       </c>
@@ -1465,7 +1473,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
         <v>48</v>
       </c>
@@ -1473,7 +1481,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
         <v>49</v>
       </c>
@@ -1481,7 +1489,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
         <v>50</v>
       </c>
@@ -1489,7 +1497,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
         <v>51</v>
       </c>
@@ -1497,7 +1505,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
         <v>52</v>
       </c>
@@ -1505,7 +1513,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
         <v>53</v>
       </c>
@@ -1513,7 +1521,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
         <v>54</v>
       </c>
@@ -1521,7 +1529,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
         <v>55</v>
       </c>
@@ -1529,7 +1537,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
         <v>56</v>
       </c>
@@ -1537,7 +1545,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
         <v>57</v>
       </c>
@@ -1545,7 +1553,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
         <v>58</v>
       </c>
@@ -1553,7 +1561,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
         <v>59</v>
       </c>
@@ -1561,7 +1569,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
         <v>60</v>
       </c>
@@ -1569,7 +1577,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="37" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
         <v>61</v>
       </c>
@@ -1577,7 +1585,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="38" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A38" t="s">
         <v>62</v>
       </c>
@@ -1585,7 +1593,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="39" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
         <v>63</v>
       </c>
@@ -1593,7 +1601,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="40" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
         <v>64</v>
       </c>
@@ -1601,7 +1609,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="41" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A41" t="s">
         <v>65</v>
       </c>
@@ -1609,7 +1617,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="42" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A42" t="s">
         <v>25</v>
       </c>
@@ -1617,7 +1625,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="43" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A43" t="s">
         <v>66</v>
       </c>
@@ -1625,7 +1633,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="44" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A44" t="s">
         <v>67</v>
       </c>
@@ -1633,7 +1641,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="45" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A45" t="s">
         <v>68</v>
       </c>
@@ -1641,7 +1649,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="46" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A46" t="s">
         <v>69</v>
       </c>
@@ -1649,7 +1657,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="47" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A47" t="s">
         <v>70</v>
       </c>
@@ -1657,7 +1665,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="48" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A48" t="s">
         <v>71</v>
       </c>
@@ -1665,7 +1673,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="49" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A49" t="s">
         <v>72</v>
       </c>
@@ -1673,7 +1681,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="50" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A50" t="s">
         <v>73</v>
       </c>
@@ -1681,7 +1689,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="51" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A51" t="s">
         <v>74</v>
       </c>
@@ -1689,7 +1697,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="52" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A52" t="s">
         <v>75</v>
       </c>
@@ -1697,7 +1705,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="53" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A53" t="s">
         <v>76</v>
       </c>
@@ -1705,7 +1713,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="54" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A54" t="s">
         <v>77</v>
       </c>
@@ -1713,7 +1721,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="55" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A55" t="s">
         <v>78</v>
       </c>
@@ -1721,7 +1729,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="56" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A56" t="s">
         <v>79</v>
       </c>
@@ -1739,16 +1747,18 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{11E236DD-84EC-4E37-AFFA-DC82731129AF}">
-  <dimension ref="A1:B9"/>
+  <dimension ref="A1:B10"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H35" sqref="H34:H35"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="38.28515625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="38.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1756,7 +1766,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>80</v>
       </c>
@@ -1764,7 +1774,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>81</v>
       </c>
@@ -1772,7 +1782,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>82</v>
       </c>
@@ -1780,7 +1790,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>83</v>
       </c>
@@ -1788,7 +1798,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>84</v>
       </c>
@@ -1796,7 +1806,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>85</v>
       </c>
@@ -1804,7 +1814,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>86</v>
       </c>
@@ -1812,12 +1822,20 @@
         <v>86</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>4</v>
       </c>
       <c r="B9" t="s">
         <v>4</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A10" t="s">
+        <v>52</v>
+      </c>
+      <c r="B10" t="s">
+        <v>52</v>
       </c>
     </row>
   </sheetData>
@@ -1834,12 +1852,12 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="39.7109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="39.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1847,7 +1865,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>87</v>
       </c>
@@ -1855,7 +1873,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>88</v>
       </c>
@@ -1863,7 +1881,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>89</v>
       </c>
@@ -1871,7 +1889,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>90</v>
       </c>
@@ -1879,7 +1897,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>91</v>
       </c>
@@ -1887,7 +1905,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>52</v>
       </c>
@@ -1895,7 +1913,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>92</v>
       </c>
@@ -1903,7 +1921,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>93</v>
       </c>
@@ -1921,13 +1939,15 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{16856B1B-CE77-4840-A6CC-B92F8DED41B8}">
-  <dimension ref="A1:B4"/>
+  <dimension ref="A1:B5"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B5" sqref="B5"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1935,7 +1955,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>94</v>
       </c>
@@ -1943,7 +1963,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>95</v>
       </c>
@@ -1951,12 +1971,20 @@
         <v>95</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>96</v>
       </c>
       <c r="B4" t="s">
         <v>96</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>52</v>
+      </c>
+      <c r="B5" t="s">
+        <v>52</v>
       </c>
     </row>
   </sheetData>
@@ -1969,16 +1997,18 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C248993A-A7DF-4A51-9BB9-A7096396C193}">
-  <dimension ref="A1:B5"/>
+  <dimension ref="A1:B6"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A8" sqref="A8"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="25" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1986,7 +2016,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>132</v>
       </c>
@@ -1994,7 +2024,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>133</v>
       </c>
@@ -2002,7 +2032,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>4</v>
       </c>
@@ -2010,12 +2040,20 @@
         <v>4</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>134</v>
       </c>
       <c r="B5" t="s">
         <v>134</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
+        <v>52</v>
+      </c>
+      <c r="B6" t="s">
+        <v>52</v>
       </c>
     </row>
   </sheetData>
@@ -2025,13 +2063,15 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{98086D0E-2EEA-4691-A3F1-03C8CD4B053A}">
-  <dimension ref="A1:B4"/>
+  <dimension ref="A1:B5"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B5" sqref="B5"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -2039,7 +2079,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>97</v>
       </c>
@@ -2047,7 +2087,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>98</v>
       </c>
@@ -2055,12 +2095,20 @@
         <v>98</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>99</v>
       </c>
       <c r="B4" t="s">
         <v>99</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>52</v>
+      </c>
+      <c r="B5" t="s">
+        <v>52</v>
       </c>
     </row>
   </sheetData>
@@ -2074,9 +2122,9 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -2084,7 +2132,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>100</v>
       </c>
@@ -2092,7 +2140,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>101</v>
       </c>
@@ -2100,7 +2148,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>52</v>
       </c>
@@ -2108,7 +2156,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>102</v>
       </c>
@@ -2116,7 +2164,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>21</v>
       </c>
@@ -2124,7 +2172,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>103</v>
       </c>
@@ -2132,7 +2180,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>104</v>
       </c>
@@ -2140,7 +2188,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>105</v>
       </c>
@@ -2148,7 +2196,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>106</v>
       </c>
@@ -2156,7 +2204,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>107</v>
       </c>
@@ -2173,36 +2221,8 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <MediaLengthInSeconds xmlns="fd6647b8-1d62-4218-ab9e-8be16ac26556" xsi:nil="true"/>
-    <lcf76f155ced4ddcb4097134ff3c332f xmlns="fd6647b8-1d62-4218-ab9e-8be16ac26556">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </lcf76f155ced4ddcb4097134ff3c332f>
-    <TaxCatchAll xmlns="da887909-7ddc-4309-9e63-bfa6ec5492b2" xsi:nil="true"/>
-    <SharedWithUsers xmlns="da887909-7ddc-4309-9e63-bfa6ec5492b2">
-      <UserInfo>
-        <DisplayName/>
-        <AccountId xsi:nil="true"/>
-        <AccountType/>
-      </UserInfo>
-    </SharedWithUsers>
-  </documentManagement>
-</p:properties>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x0101004C1AEA574E0CCF4A8E6C2AB161E36A7D" ma:contentTypeVersion="17" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="428883c0f5a77541938e64054f1403da">
-  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="fd6647b8-1d62-4218-ab9e-8be16ac26556" xmlns:ns3="da887909-7ddc-4309-9e63-bfa6ec5492b2" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="7290874872f91344a243d8af9445d77c" ns2:_="" ns3:_="">
+<ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x0101004C1AEA574E0CCF4A8E6C2AB161E36A7D" ma:contentTypeVersion="18" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="facbf55d1583897d5b6ceac11b3c63f2">
+  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="fd6647b8-1d62-4218-ab9e-8be16ac26556" xmlns:ns3="da887909-7ddc-4309-9e63-bfa6ec5492b2" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="fa88919d291dc7579bed5d63472006ce" ns2:_="" ns3:_="">
     <xsd:import namespace="fd6647b8-1d62-4218-ab9e-8be16ac26556"/>
     <xsd:import namespace="da887909-7ddc-4309-9e63-bfa6ec5492b2"/>
     <xsd:element name="properties">
@@ -2226,6 +2246,7 @@
                 <xsd:element ref="ns2:lcf76f155ced4ddcb4097134ff3c332f" minOccurs="0"/>
                 <xsd:element ref="ns3:TaxCatchAll" minOccurs="0"/>
                 <xsd:element ref="ns2:MediaServiceObjectDetectorVersions" minOccurs="0"/>
+                <xsd:element ref="ns2:MediaServiceSearchProperties" minOccurs="0"/>
               </xsd:all>
             </xsd:complexType>
           </xsd:element>
@@ -2300,6 +2321,11 @@
     <xsd:element name="MediaServiceObjectDetectorVersions" ma:index="23" nillable="true" ma:displayName="MediaServiceObjectDetectorVersions" ma:hidden="true" ma:indexed="true" ma:internalName="MediaServiceObjectDetectorVersions" ma:readOnly="true">
       <xsd:simpleType>
         <xsd:restriction base="dms:Text"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceSearchProperties" ma:index="24" nillable="true" ma:displayName="MediaServiceSearchProperties" ma:hidden="true" ma:internalName="MediaServiceSearchProperties" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Note"/>
       </xsd:simpleType>
     </xsd:element>
   </xsd:schema>
@@ -2443,27 +2469,36 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{C4C8722F-D343-4A51-8E20-95DD7D687B95}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="fd6647b8-1d62-4218-ab9e-8be16ac26556"/>
-    <ds:schemaRef ds:uri="da887909-7ddc-4309-9e63-bfa6ec5492b2"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{BFD343AD-B5E7-46F9-BC49-22BD3D1701CC}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <MediaLengthInSeconds xmlns="fd6647b8-1d62-4218-ab9e-8be16ac26556" xsi:nil="true"/>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="fd6647b8-1d62-4218-ab9e-8be16ac26556">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
+    <TaxCatchAll xmlns="da887909-7ddc-4309-9e63-bfa6ec5492b2" xsi:nil="true"/>
+    <SharedWithUsers xmlns="da887909-7ddc-4309-9e63-bfa6ec5492b2">
+      <UserInfo>
+        <DisplayName/>
+        <AccountId xsi:nil="true"/>
+        <AccountType/>
+      </UserInfo>
+    </SharedWithUsers>
+  </documentManagement>
+</p:properties>
 </file>
 
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{888E1157-9232-43B9-9EA1-0EBBC9A2B665}">
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{8E934FF3-A279-45D0-9E98-8444B2EBC8A5}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
@@ -2479,4 +2514,23 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{BFD343AD-B5E7-46F9-BC49-22BD3D1701CC}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{C4C8722F-D343-4A51-8E20-95DD7D687B95}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="fd6647b8-1d62-4218-ab9e-8be16ac26556"/>
+    <ds:schemaRef ds:uri="da887909-7ddc-4309-9e63-bfa6ec5492b2"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>